--- a/results/9-results.xlsx
+++ b/results/9-results.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\bp-sa-jupyter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BE3527-8853-4E5D-A5DA-DD49652A3A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E944E4-BCD8-45BC-ABCC-09AB907440DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9-results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="1182">
   <si>
     <t>Sentence</t>
   </si>
@@ -3548,13 +3560,31 @@
   </si>
   <si>
     <t>ohh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>manual eval</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3698,8 +3728,35 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3891,8 +3948,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4022,6 +4085,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4067,7 +4222,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4075,6 +4230,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4471,24 +4639,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J605"/>
+  <dimension ref="A1:R605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="B595" sqref="B595"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="57" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="16.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4517,8 +4686,12 @@
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4546,8 +4719,11 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4576,7 +4752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4604,8 +4780,11 @@
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4636,8 +4815,11 @@
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4665,8 +4847,11 @@
       <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4694,8 +4879,11 @@
       <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4726,8 +4914,11 @@
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4758,8 +4949,11 @@
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4787,8 +4981,11 @@
       <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4817,7 +5014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4845,8 +5042,11 @@
       <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4875,7 +5075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4904,7 +5104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4933,7 +5133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4961,8 +5161,11 @@
       <c r="I16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4990,8 +5193,11 @@
       <c r="I17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5019,8 +5225,16 @@
       <c r="I18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5048,8 +5262,23 @@
       <c r="I19" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5077,8 +5306,18 @@
       <c r="I20" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5106,8 +5345,20 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5138,8 +5389,18 @@
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5164,8 +5425,11 @@
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5193,8 +5457,11 @@
       <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5222,8 +5489,11 @@
       <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5251,8 +5521,11 @@
       <c r="I26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5280,8 +5553,9 @@
       <c r="I27" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5310,7 +5584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5342,7 +5616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5374,7 +5648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5403,7 +5677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5432,7 +5706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5464,7 +5738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5493,7 +5767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5522,7 +5796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5554,7 +5828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5586,7 +5860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5615,7 +5889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5644,7 +5918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5673,7 +5947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5702,7 +5976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5731,7 +6005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5757,7 +6031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5786,7 +6060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5815,7 +6089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5844,7 +6118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5873,7 +6147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5902,7 +6176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5931,7 +6205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5960,7 +6234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5989,7 +6263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6018,7 +6292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6047,7 +6321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6073,7 +6347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6102,7 +6376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6131,7 +6405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6163,7 +6437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6195,7 +6469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6224,7 +6498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6253,7 +6527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6282,7 +6556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6314,7 +6588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6346,7 +6620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6378,7 +6652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6407,7 +6681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6439,7 +6713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6468,7 +6742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6497,7 +6771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6529,7 +6803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6561,7 +6835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6590,7 +6864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6619,7 +6893,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6648,7 +6922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6677,7 +6951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6706,7 +6980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6735,7 +7009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6764,7 +7038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6793,7 +7067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6822,7 +7096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6851,7 +7125,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6883,7 +7157,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6912,7 +7186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6941,7 +7215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6970,7 +7244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7002,7 +7276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7031,7 +7305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7060,7 +7334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7089,7 +7363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7118,7 +7392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7147,7 +7421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7176,7 +7450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7205,7 +7479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7231,7 +7505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7263,7 +7537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7292,7 +7566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7321,7 +7595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7353,7 +7627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7382,7 +7656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7411,7 +7685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7440,7 +7714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7469,7 +7743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7498,7 +7772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7527,7 +7801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7559,7 +7833,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7588,7 +7862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7620,7 +7894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7649,7 +7923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7675,7 +7949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7707,7 +7981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7736,7 +8010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7768,7 +8042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7797,7 +8071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7826,7 +8100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7852,7 +8126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7878,7 +8152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7907,7 +8181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7939,7 +8213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7968,7 +8242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7997,7 +8271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8026,7 +8300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8055,7 +8329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8084,7 +8358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8113,7 +8387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8142,7 +8416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8171,7 +8445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -8200,7 +8474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -8226,7 +8500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8255,7 +8529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -8284,7 +8558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8313,7 +8587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8345,7 +8619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8374,7 +8648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8406,7 +8680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8438,7 +8712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8467,7 +8741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8496,7 +8770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8525,7 +8799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8554,7 +8828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8583,7 +8857,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8612,7 +8886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8641,7 +8915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8673,7 +8947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8702,7 +8976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8731,7 +9005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8763,7 +9037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8792,7 +9066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8824,7 +9098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8856,7 +9130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8885,7 +9159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8914,7 +9188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8946,7 +9220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8975,7 +9249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -9004,7 +9278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -9033,7 +9307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -9065,7 +9339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -9094,7 +9368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -9123,7 +9397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9152,7 +9426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9181,7 +9455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9210,7 +9484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9239,7 +9513,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9271,7 +9545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9303,7 +9577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9332,7 +9606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9361,7 +9635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9390,7 +9664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9422,7 +9696,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9454,7 +9728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9486,7 +9760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9515,7 +9789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9544,7 +9818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9573,7 +9847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9602,7 +9876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9634,7 +9908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9666,7 +9940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9695,7 +9969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9724,7 +9998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9753,7 +10027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9782,7 +10056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9811,7 +10085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9840,7 +10114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9872,7 +10146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9904,7 +10178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9936,7 +10210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9965,7 +10239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9994,7 +10268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10023,7 +10297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10055,7 +10329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10084,7 +10358,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10113,7 +10387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10142,7 +10416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10174,7 +10448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10203,7 +10477,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10232,7 +10506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10261,7 +10535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10293,7 +10567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -10322,7 +10596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -10351,7 +10625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -10380,7 +10654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -10409,7 +10683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -10441,7 +10715,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -10470,7 +10744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -10499,7 +10773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -10528,7 +10802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10557,7 +10831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -10583,7 +10857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -10612,7 +10886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -10644,7 +10918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -10676,7 +10950,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -10705,7 +10979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -10734,7 +11008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -10766,7 +11040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -10798,7 +11072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -10827,7 +11101,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -10856,7 +11130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -10885,7 +11159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -10914,7 +11188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -10943,7 +11217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -10972,7 +11246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -11001,7 +11275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -11030,7 +11304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -11059,7 +11333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -11088,7 +11362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -11117,7 +11391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -11149,7 +11423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11178,7 +11452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -11207,7 +11481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -11236,7 +11510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11265,7 +11539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11294,7 +11568,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11323,7 +11597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11352,7 +11626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11381,7 +11655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11410,7 +11684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11439,7 +11713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11465,7 +11739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11494,7 +11768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -11523,7 +11797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -11552,7 +11826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -11584,7 +11858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -11610,7 +11884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -11639,7 +11913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -11668,7 +11942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -11697,7 +11971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -11726,7 +12000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -11755,7 +12029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -11784,7 +12058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -11813,7 +12087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -11842,7 +12116,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -11871,7 +12145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -11900,7 +12174,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -11932,7 +12206,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -11961,7 +12235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -11990,7 +12264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12019,7 +12293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12048,7 +12322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12077,7 +12351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12106,7 +12380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12135,7 +12409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12164,7 +12438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12196,7 +12470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12225,7 +12499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12257,7 +12531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12286,7 +12560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12315,7 +12589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12344,7 +12618,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -12373,7 +12647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -12402,7 +12676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -12431,7 +12705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -12460,7 +12734,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -12489,7 +12763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -12518,7 +12792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -12547,7 +12821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -12576,7 +12850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -12605,7 +12879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -12634,7 +12908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -12663,7 +12937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -12695,7 +12969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -12727,7 +13001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -12759,7 +13033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -12791,7 +13065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -12820,7 +13094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12849,7 +13123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -12878,7 +13152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -12907,7 +13181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12936,7 +13210,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -12965,7 +13239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -12994,7 +13268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -13023,7 +13297,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -13055,7 +13329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -13084,7 +13358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -13113,7 +13387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -13139,7 +13413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -13168,7 +13442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -13197,7 +13471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -13226,7 +13500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -13255,7 +13529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -13287,7 +13561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -13316,7 +13590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -13345,7 +13619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -13374,7 +13648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -13403,7 +13677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -13432,7 +13706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -13461,7 +13735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -13490,7 +13764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -13519,7 +13793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -13551,7 +13825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -13580,7 +13854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -13609,7 +13883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -13638,7 +13912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -13667,7 +13941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -13693,7 +13967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -13722,7 +13996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -13751,7 +14025,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -13780,7 +14054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -13809,7 +14083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -13838,7 +14112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -13870,7 +14144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -13902,7 +14176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -13931,7 +14205,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -13963,7 +14237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -13992,7 +14266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -14024,7 +14298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -14056,7 +14330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -14085,7 +14359,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -14114,7 +14388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -14143,7 +14417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -14175,7 +14449,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -14207,7 +14481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -14236,7 +14510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -14265,7 +14539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -14294,7 +14568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -14326,7 +14600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -14355,7 +14629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -14384,7 +14658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -14416,7 +14690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -14445,7 +14719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -14474,7 +14748,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -14503,7 +14777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -14532,7 +14806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -14561,7 +14835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -14590,7 +14864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -14619,7 +14893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -14648,7 +14922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -14677,7 +14951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -14706,7 +14980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -14735,7 +15009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -14764,7 +15038,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -14793,7 +15067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -14822,7 +15096,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -14851,7 +15125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -14880,7 +15154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -14909,7 +15183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -14938,7 +15212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -14964,7 +15238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -14993,7 +15267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -15022,7 +15296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -15051,7 +15325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -15083,7 +15357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -15115,7 +15389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -15147,7 +15421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -15179,7 +15453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -15211,7 +15485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -15243,7 +15517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -15272,7 +15546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -15301,7 +15575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -15333,7 +15607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -15362,7 +15636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -15394,7 +15668,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -15423,7 +15697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -15452,7 +15726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -15481,7 +15755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -15510,7 +15784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -15539,7 +15813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -15568,7 +15842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -15600,7 +15874,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -15629,7 +15903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -15658,7 +15932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -15690,7 +15964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -15719,7 +15993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -15748,7 +16022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -15777,7 +16051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -15803,7 +16077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -15835,7 +16109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -15864,7 +16138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -15893,7 +16167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -15925,7 +16199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -15957,7 +16231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -15989,7 +16263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -16018,7 +16292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -16047,7 +16321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -16079,7 +16353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -16108,7 +16382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -16137,7 +16411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -16169,7 +16443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -16198,7 +16472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -16230,7 +16504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -16259,7 +16533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -16288,7 +16562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -16317,7 +16591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -16346,7 +16620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -16375,7 +16649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -16404,7 +16678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -16433,7 +16707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -16462,7 +16736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -16491,7 +16765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -16520,7 +16794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -16549,7 +16823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -16578,7 +16852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -16610,7 +16884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -16639,7 +16913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -16668,7 +16942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -16697,7 +16971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -16726,7 +17000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -16755,7 +17029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -16784,7 +17058,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -16813,7 +17087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -16842,7 +17116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -16874,7 +17148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -16903,7 +17177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -16932,7 +17206,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -16961,7 +17235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -16990,7 +17264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -17019,7 +17293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -17048,7 +17322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -17077,7 +17351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -17106,7 +17380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -17138,7 +17412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -17167,7 +17441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -17196,7 +17470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -17225,7 +17499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -17254,7 +17528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -17286,7 +17560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -17315,7 +17589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -17344,7 +17618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -17373,7 +17647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -17399,7 +17673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -17428,7 +17702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -17457,7 +17731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -17486,7 +17760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -17515,7 +17789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -17544,7 +17818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -17573,7 +17847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -17605,7 +17879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -17637,7 +17911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -17666,7 +17940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -17695,7 +17969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -17724,7 +17998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -17753,7 +18027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -17782,7 +18056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -17811,7 +18085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -17840,7 +18114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -17869,7 +18143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -17898,7 +18172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -17927,7 +18201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -17956,7 +18230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -17985,7 +18259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -18014,7 +18288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -18043,7 +18317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -18072,7 +18346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -18101,7 +18375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -18133,7 +18407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -18162,7 +18436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -18191,7 +18465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -18220,7 +18494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -18252,7 +18526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -18283,8 +18557,11 @@
       <c r="J467" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K467" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -18313,7 +18590,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -18342,7 +18619,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -18371,7 +18648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -18400,7 +18677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -18429,7 +18706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -18458,7 +18735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -18487,7 +18764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -18516,7 +18793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -18542,7 +18819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -18574,7 +18851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -18603,7 +18880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -18632,7 +18909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -18658,7 +18935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -18687,7 +18964,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -18719,7 +18996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -18748,7 +19025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -18780,7 +19057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -18812,7 +19089,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -18841,7 +19118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -18870,7 +19147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -18899,7 +19176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -18928,7 +19205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -18957,7 +19234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -18986,7 +19263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -19015,7 +19292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -19044,7 +19321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -19073,7 +19350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -19102,7 +19379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -19131,7 +19408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -19160,7 +19437,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -19189,7 +19466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -19218,7 +19495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -19247,7 +19524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -19276,7 +19553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -19305,7 +19582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -19334,7 +19611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -19363,7 +19640,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -19392,7 +19669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -19421,7 +19698,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -19450,7 +19727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -19479,7 +19756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -19508,7 +19785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -19537,7 +19814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -19566,7 +19843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -19598,7 +19875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -19630,7 +19907,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -19659,7 +19936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -19688,7 +19965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -19714,7 +19991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -19743,7 +20020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -19775,7 +20052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -19804,7 +20081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -19833,7 +20110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -19865,7 +20142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -19897,7 +20174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -19925,8 +20202,11 @@
       <c r="I523" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K523" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -19958,7 +20238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -19987,7 +20267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -20016,7 +20296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -20048,7 +20328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -20080,7 +20360,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -20109,7 +20389,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -20138,7 +20418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -20167,7 +20447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -20199,7 +20479,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -20228,7 +20508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -20257,7 +20537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -20286,7 +20566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -20315,7 +20595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -20344,7 +20624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -20373,7 +20653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -20405,7 +20685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -20434,7 +20714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -20460,7 +20740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -20489,7 +20769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -20518,7 +20798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -20547,7 +20827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -20576,7 +20856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -20608,7 +20888,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -20640,7 +20920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -20669,7 +20949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -20701,7 +20981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -20730,7 +21010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -20759,7 +21039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -20788,7 +21068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -20817,7 +21097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -20849,7 +21129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -20881,7 +21161,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -20910,7 +21190,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -20939,7 +21219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -20968,7 +21248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21000,7 +21280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21032,7 +21312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21061,7 +21341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -21093,7 +21373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -21122,7 +21402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -21154,7 +21434,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -21186,7 +21466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21215,7 +21495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21247,7 +21527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21279,7 +21559,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21308,7 +21588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21337,7 +21617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21369,7 +21649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21398,7 +21678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21427,7 +21707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21456,7 +21736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21485,7 +21765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21514,7 +21794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21543,7 +21823,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21575,7 +21855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21604,7 +21884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -21633,7 +21913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -21665,7 +21945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -21694,7 +21974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -21723,7 +22003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -21752,7 +22032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -21784,7 +22064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -21813,7 +22093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -21842,7 +22122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -21871,7 +22151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -21900,7 +22180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -21929,7 +22209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -21958,7 +22238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -21987,7 +22267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -22019,7 +22299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -22048,7 +22328,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -22077,7 +22357,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22106,7 +22386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22135,7 +22415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22164,7 +22444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22193,7 +22473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22222,7 +22502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22251,7 +22531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22283,7 +22563,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -22309,7 +22589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -22338,7 +22618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -22385,5 +22665,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>